--- a/FORMATO NESTLE REPORTE.xlsx
+++ b/FORMATO NESTLE REPORTE.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7ABA99-2087-46D0-AA23-F3ACDFE1A1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="10515" windowHeight="3930"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NESTLE" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="119">
   <si>
     <t>N DocRef</t>
   </si>
@@ -353,9 +359,6 @@
   </si>
   <si>
     <t xml:space="preserve">CD Guayaquil </t>
-  </si>
-  <si>
-    <t>DIMEVAR</t>
   </si>
   <si>
     <t>Willian Perez</t>
@@ -382,7 +385,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -483,10 +486,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -495,11 +497,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -518,6 +519,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -566,7 +570,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,9 +603,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -634,6 +655,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -809,10 +847,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H186" workbookViewId="0">
+    <sheetView topLeftCell="H186" workbookViewId="0">
       <selection activeCell="L191" sqref="L191:U204"/>
     </sheetView>
   </sheetViews>
@@ -832,70 +870,70 @@
   <sheetData>
     <row r="1" spans="1:21" ht="106.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="M3" s="11" t="s">
+      <c r="D3" s="2"/>
+      <c r="M3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7" t="s">
+      <c r="L4" s="6"/>
+      <c r="M4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -909,7 +947,7 @@
       <c r="C5" s="1">
         <v>487792</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>44914</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -924,10 +962,10 @@
       <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>5279.85</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>17.489999999999998</v>
       </c>
       <c r="L5" s="1">
@@ -939,7 +977,7 @@
       <c r="N5" s="1">
         <v>488847</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>44918</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -954,10 +992,10 @@
       <c r="S5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="4">
         <v>5404.7</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="4">
         <v>20.52</v>
       </c>
     </row>
@@ -971,7 +1009,7 @@
       <c r="C6" s="1">
         <v>487786</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>44914</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -986,10 +1024,10 @@
       <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="1">
@@ -1001,7 +1039,7 @@
       <c r="N6" s="1">
         <v>488859</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>44918</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -1016,10 +1054,10 @@
       <c r="S6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="4">
         <v>4873.3999999999996</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1033,7 +1071,7 @@
       <c r="C7" s="1">
         <v>487791</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>44914</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1048,10 +1086,10 @@
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>6084</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>23.11</v>
       </c>
       <c r="L7" s="1">
@@ -1063,7 +1101,7 @@
       <c r="N7" s="1">
         <v>488831</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>44918</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -1078,10 +1116,10 @@
       <c r="S7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="4">
         <v>11086.95</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="4">
         <v>34.64</v>
       </c>
     </row>
@@ -1095,7 +1133,7 @@
       <c r="C8" s="1">
         <v>487628</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>44914</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1110,10 +1148,10 @@
       <c r="H8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>4036.1</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>9.64</v>
       </c>
       <c r="L8" s="1">
@@ -1125,7 +1163,7 @@
       <c r="N8" s="1">
         <v>488852</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>44918</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -1140,10 +1178,10 @@
       <c r="S8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="4">
         <v>3805.8</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="4">
         <v>13.72</v>
       </c>
     </row>
@@ -1157,7 +1195,7 @@
       <c r="C9" s="1">
         <v>487787</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>44914</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1187,7 +1225,7 @@
       <c r="N9" s="1">
         <v>488839</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>44918</v>
       </c>
       <c r="P9" s="1" t="s">
@@ -1219,7 +1257,7 @@
       <c r="C10" s="1">
         <v>488284</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>44915</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1249,7 +1287,7 @@
       <c r="N10" s="1">
         <v>489089</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>44921</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -1281,7 +1319,7 @@
       <c r="C11" s="1">
         <v>488273</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>44916</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1311,7 +1349,7 @@
       <c r="N11" s="1">
         <v>489080</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>44921</v>
       </c>
       <c r="P11" s="1" t="s">
@@ -1339,7 +1377,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>44916</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1361,7 +1399,7 @@
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="4"/>
+      <c r="O12" s="3"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1379,7 +1417,7 @@
       <c r="C13" s="1">
         <v>488283</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>44916</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1405,7 +1443,7 @@
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="4"/>
+      <c r="O13" s="3"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1423,7 +1461,7 @@
       <c r="C14" s="1">
         <v>488272</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>44916</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1449,7 +1487,7 @@
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="4"/>
+      <c r="O14" s="3"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1467,7 +1505,7 @@
       <c r="C15" s="1">
         <v>488302</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>44916</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1476,13 +1514,13 @@
       <c r="F15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>8125.59</v>
       </c>
       <c r="J15" s="1">
@@ -1493,12 +1531,12 @@
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="4"/>
+      <c r="O15" s="3"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
+      <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="9"/>
+      <c r="T15" s="8"/>
       <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1507,7 +1545,7 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1519,7 +1557,7 @@
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="4"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1528,70 +1566,70 @@
       <c r="U16" s="1"/>
     </row>
     <row r="22" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="M22" s="11" t="s">
+      <c r="D22" s="2"/>
+      <c r="M22" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="O22" s="3"/>
+      <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7" t="s">
+      <c r="L23" s="6"/>
+      <c r="M23" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="P23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q23" s="7" t="s">
+      <c r="Q23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="7" t="s">
+      <c r="R23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S23" s="7" t="s">
+      <c r="S23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T23" s="7" t="s">
+      <c r="T23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="U23" s="7" t="s">
+      <c r="U23" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1603,7 +1641,7 @@
         <v>26096653</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>45288</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -1618,10 +1656,10 @@
       <c r="H24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="4">
         <v>17006.009999999998</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <v>43.41</v>
       </c>
       <c r="L24" s="1">
@@ -1633,7 +1671,7 @@
       <c r="N24" s="1">
         <v>490085</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="3">
         <v>44932</v>
       </c>
       <c r="P24" s="1" t="s">
@@ -1648,10 +1686,10 @@
       <c r="S24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T24" s="5">
+      <c r="T24" s="4">
         <v>10615.62</v>
       </c>
-      <c r="U24" s="5">
+      <c r="U24" s="4">
         <v>35.25</v>
       </c>
     </row>
@@ -1665,7 +1703,7 @@
       <c r="C25" s="1">
         <v>489403</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>45288</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1680,10 +1718,10 @@
       <c r="H25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="4">
         <v>7732.76</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <v>14.37</v>
       </c>
       <c r="L25" s="1">
@@ -1695,7 +1733,7 @@
       <c r="N25" s="1">
         <v>490082</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="3">
         <v>44932</v>
       </c>
       <c r="P25" s="1" t="s">
@@ -1710,10 +1748,10 @@
       <c r="S25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T25" s="5">
+      <c r="T25" s="4">
         <v>7373.54</v>
       </c>
-      <c r="U25" s="5">
+      <c r="U25" s="4">
         <v>19.82</v>
       </c>
     </row>
@@ -1727,7 +1765,7 @@
       <c r="C26" s="1">
         <v>489404</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>45288</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -1742,10 +1780,10 @@
       <c r="H26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="4">
         <v>3690.8</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="4">
         <v>22.45</v>
       </c>
       <c r="L26" s="1">
@@ -1757,7 +1795,7 @@
       <c r="N26" s="1">
         <v>490083</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="3">
         <v>44932</v>
       </c>
       <c r="P26" s="1" t="s">
@@ -1772,10 +1810,10 @@
       <c r="S26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T26" s="5">
+      <c r="T26" s="4">
         <v>3791.28</v>
       </c>
-      <c r="U26" s="5">
+      <c r="U26" s="4">
         <v>19.09</v>
       </c>
     </row>
@@ -1789,7 +1827,7 @@
       <c r="C27" s="1">
         <v>489401</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>45288</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -1804,10 +1842,10 @@
       <c r="H27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="4">
         <v>9120.24</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <v>20.69</v>
       </c>
       <c r="L27" s="1">
@@ -1815,13 +1853,13 @@
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="4"/>
+      <c r="O27" s="3"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1833,7 +1871,7 @@
       <c r="C28" s="1">
         <v>489397</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>45288</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -1859,7 +1897,7 @@
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="4"/>
+      <c r="O28" s="3"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -1877,7 +1915,7 @@
       <c r="C29" s="1">
         <v>489415</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>45288</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -1903,7 +1941,7 @@
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="4"/>
+      <c r="O29" s="3"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -1917,7 +1955,7 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1929,7 +1967,7 @@
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="4"/>
+      <c r="O30" s="3"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -1943,7 +1981,7 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="4"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1955,7 +1993,7 @@
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="4"/>
+      <c r="O31" s="3"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -1969,7 +2007,7 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1981,7 +2019,7 @@
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="4"/>
+      <c r="O32" s="3"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -1995,7 +2033,7 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="4"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -2007,7 +2045,7 @@
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="4"/>
+      <c r="O33" s="3"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -2021,24 +2059,24 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="4"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="2"/>
+      <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="9"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="1"/>
       <c r="L34" s="1">
         <v>11</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="4"/>
+      <c r="O34" s="3"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="2"/>
+      <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-      <c r="T34" s="9"/>
+      <c r="T34" s="8"/>
       <c r="U34" s="1"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -2047,7 +2085,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="4"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2059,7 +2097,7 @@
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="4"/>
+      <c r="O35" s="3"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -2068,70 +2106,70 @@
       <c r="U35" s="1"/>
     </row>
     <row r="40" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="M40" s="11" t="s">
+      <c r="D40" s="2"/>
+      <c r="M40" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="O40" s="3"/>
+      <c r="O40" s="2"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7" t="s">
+      <c r="L41" s="6"/>
+      <c r="M41" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N41" s="7" t="s">
+      <c r="N41" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="O41" s="7" t="s">
+      <c r="O41" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="P41" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q41" s="7" t="s">
+      <c r="Q41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R41" s="7" t="s">
+      <c r="R41" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S41" s="7" t="s">
+      <c r="S41" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T41" s="7" t="s">
+      <c r="T41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="U41" s="7" t="s">
+      <c r="U41" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2145,7 +2183,7 @@
       <c r="C42" s="1">
         <v>490327</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>44937</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -2160,22 +2198,22 @@
       <c r="H42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="4">
         <v>7137.55</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="4">
         <v>16.77</v>
       </c>
       <c r="L42" s="1">
         <v>1</v>
       </c>
-      <c r="M42" s="12">
+      <c r="M42" s="11">
         <v>8028017369</v>
       </c>
       <c r="N42" s="1">
         <v>490327</v>
       </c>
-      <c r="O42" s="4">
+      <c r="O42" s="3">
         <v>44937</v>
       </c>
       <c r="P42" s="1" t="s">
@@ -2190,10 +2228,10 @@
       <c r="S42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T42" s="5">
+      <c r="T42" s="4">
         <v>7137.55</v>
       </c>
-      <c r="U42" s="5">
+      <c r="U42" s="4">
         <v>16.77</v>
       </c>
     </row>
@@ -2207,7 +2245,7 @@
       <c r="C43" s="1">
         <v>128056</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>44937</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -2222,22 +2260,22 @@
       <c r="H43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="4">
         <v>6111.61</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="4">
         <v>16.329999999999998</v>
       </c>
       <c r="L43" s="1">
         <v>2</v>
       </c>
-      <c r="M43" s="12">
+      <c r="M43" s="11">
         <v>8028011990</v>
       </c>
       <c r="N43" s="1">
         <v>128056</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O43" s="3">
         <v>44932</v>
       </c>
       <c r="P43" s="1" t="s">
@@ -2252,10 +2290,10 @@
       <c r="S43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T43" s="5">
+      <c r="T43" s="4">
         <v>6111.61</v>
       </c>
-      <c r="U43" s="5">
+      <c r="U43" s="4">
         <v>16.329999999999998</v>
       </c>
     </row>
@@ -2269,7 +2307,7 @@
       <c r="C44" s="1">
         <v>490320</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>44937</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -2284,22 +2322,22 @@
       <c r="H44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="4">
         <v>8726.68</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="4">
         <v>33.200000000000003</v>
       </c>
       <c r="L44" s="1">
         <v>3</v>
       </c>
-      <c r="M44" s="12">
+      <c r="M44" s="11">
         <v>8028017342</v>
       </c>
       <c r="N44" s="1">
         <v>490320</v>
       </c>
-      <c r="O44" s="4">
+      <c r="O44" s="3">
         <v>9</v>
       </c>
       <c r="P44" s="1" t="s">
@@ -2314,10 +2352,10 @@
       <c r="S44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T44" s="5">
+      <c r="T44" s="4">
         <v>8726.68</v>
       </c>
-      <c r="U44" s="5">
+      <c r="U44" s="4">
         <v>33.200000000000003</v>
       </c>
     </row>
@@ -2331,7 +2369,7 @@
       <c r="C45" s="1">
         <v>490321</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>44937</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -2346,22 +2384,22 @@
       <c r="H45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="4">
         <v>5711.51</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="4">
         <v>28.69</v>
       </c>
       <c r="L45" s="1">
         <v>4</v>
       </c>
-      <c r="M45" s="12">
+      <c r="M45" s="11">
         <v>8028017346</v>
       </c>
       <c r="N45" s="1">
         <v>490321</v>
       </c>
-      <c r="O45" s="4">
+      <c r="O45" s="3">
         <v>44937</v>
       </c>
       <c r="P45" s="1" t="s">
@@ -2376,10 +2414,10 @@
       <c r="S45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T45" s="5">
+      <c r="T45" s="4">
         <v>5711.51</v>
       </c>
-      <c r="U45" s="5">
+      <c r="U45" s="4">
         <v>28.69</v>
       </c>
     </row>
@@ -2389,7 +2427,7 @@
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="4"/>
+      <c r="D46" s="3"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2405,7 +2443,7 @@
       <c r="N46" s="1">
         <v>490697</v>
       </c>
-      <c r="O46" s="4">
+      <c r="O46" s="3">
         <v>44936</v>
       </c>
       <c r="P46" s="1" t="s">
@@ -2433,7 +2471,7 @@
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="4"/>
+      <c r="D47" s="3"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2449,7 +2487,7 @@
       <c r="N47" s="1">
         <v>490705</v>
       </c>
-      <c r="O47" s="4">
+      <c r="O47" s="3">
         <v>44937</v>
       </c>
       <c r="P47" s="1" t="s">
@@ -2477,7 +2515,7 @@
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="4"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2493,7 +2531,7 @@
       <c r="N48" s="1">
         <v>490721</v>
       </c>
-      <c r="O48" s="4">
+      <c r="O48" s="3">
         <v>11</v>
       </c>
       <c r="P48" s="1" t="s">
@@ -2521,7 +2559,7 @@
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="4"/>
+      <c r="D49" s="3"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -2537,7 +2575,7 @@
       <c r="N49" s="1">
         <v>490722</v>
       </c>
-      <c r="O49" s="4">
+      <c r="O49" s="3">
         <v>44937</v>
       </c>
       <c r="P49" s="1" t="s">
@@ -2565,7 +2603,7 @@
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="4"/>
+      <c r="D50" s="3"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2581,7 +2619,7 @@
       <c r="N50" s="1">
         <v>490708</v>
       </c>
-      <c r="O50" s="4">
+      <c r="O50" s="3">
         <v>44937</v>
       </c>
       <c r="P50" s="1" t="s">
@@ -2609,7 +2647,7 @@
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="4"/>
+      <c r="D51" s="3"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2621,7 +2659,7 @@
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-      <c r="O51" s="4"/>
+      <c r="O51" s="3"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -2635,24 +2673,24 @@
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="4"/>
+      <c r="D52" s="3"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="2"/>
+      <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="9"/>
+      <c r="I52" s="8"/>
       <c r="J52" s="1"/>
       <c r="L52" s="1">
         <v>11</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
-      <c r="O52" s="4"/>
+      <c r="O52" s="3"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-      <c r="R52" s="2"/>
+      <c r="R52" s="1"/>
       <c r="S52" s="1"/>
-      <c r="T52" s="9"/>
+      <c r="T52" s="8"/>
       <c r="U52" s="1"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
@@ -2661,7 +2699,7 @@
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="4"/>
+      <c r="D53" s="3"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -2673,7 +2711,7 @@
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-      <c r="O53" s="4"/>
+      <c r="O53" s="3"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -2682,70 +2720,70 @@
       <c r="U53" s="1"/>
     </row>
     <row r="56" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="M56" s="11" t="s">
+      <c r="D56" s="2"/>
+      <c r="M56" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="O56" s="3"/>
+      <c r="O56" s="2"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7" t="s">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="I57" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J57" s="7" t="s">
+      <c r="J57" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7" t="s">
+      <c r="L57" s="6"/>
+      <c r="M57" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N57" s="7" t="s">
+      <c r="N57" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="O57" s="7" t="s">
+      <c r="O57" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P57" s="7" t="s">
+      <c r="P57" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q57" s="7" t="s">
+      <c r="Q57" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R57" s="7" t="s">
+      <c r="R57" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S57" s="7" t="s">
+      <c r="S57" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T57" s="7" t="s">
+      <c r="T57" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="U57" s="7" t="s">
+      <c r="U57" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2753,13 +2791,13 @@
       <c r="A58" s="1">
         <v>1</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="11">
         <v>8028042928</v>
       </c>
       <c r="C58" s="1">
         <v>491298</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="3">
         <v>44942</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -2774,22 +2812,22 @@
       <c r="H58" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I58" s="5">
+      <c r="I58" s="4">
         <v>4706.6099999999997</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58" s="4">
         <v>18.43</v>
       </c>
       <c r="L58" s="1">
         <v>1</v>
       </c>
-      <c r="M58" s="12">
+      <c r="M58" s="11">
         <v>8028052744</v>
       </c>
       <c r="N58" s="1">
         <v>491705</v>
       </c>
-      <c r="O58" s="4">
+      <c r="O58" s="3">
         <v>44944</v>
       </c>
       <c r="P58" s="1" t="s">
@@ -2804,10 +2842,10 @@
       <c r="S58" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T58" s="5">
+      <c r="T58" s="4">
         <v>9895.86</v>
       </c>
-      <c r="U58" s="5">
+      <c r="U58" s="4">
         <v>32.229999999999997</v>
       </c>
     </row>
@@ -2815,13 +2853,13 @@
       <c r="A59" s="1">
         <v>2</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="11">
         <v>8028042895</v>
       </c>
       <c r="C59" s="1">
         <v>491306</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="3">
         <v>44942</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -2836,22 +2874,22 @@
       <c r="H59" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I59" s="5">
+      <c r="I59" s="4">
         <v>5845</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J59" s="4">
         <v>31.6</v>
       </c>
       <c r="L59" s="1">
         <v>2</v>
       </c>
-      <c r="M59" s="12">
+      <c r="M59" s="11">
         <v>8028052715</v>
       </c>
       <c r="N59" s="1">
         <v>491734</v>
       </c>
-      <c r="O59" s="4">
+      <c r="O59" s="3">
         <v>44944</v>
       </c>
       <c r="P59" s="1" t="s">
@@ -2866,10 +2904,10 @@
       <c r="S59" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T59" s="5">
+      <c r="T59" s="4">
         <v>7124.96</v>
       </c>
-      <c r="U59" s="5">
+      <c r="U59" s="4">
         <v>28.94</v>
       </c>
     </row>
@@ -2877,13 +2915,13 @@
       <c r="A60" s="1">
         <v>3</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="11">
         <v>8028042858</v>
       </c>
       <c r="C60" s="1">
         <v>491319</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="3">
         <v>44942</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -2898,22 +2936,22 @@
       <c r="H60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I60" s="5">
+      <c r="I60" s="4">
         <v>10386.51</v>
       </c>
-      <c r="J60" s="5">
+      <c r="J60" s="4">
         <v>27.63</v>
       </c>
       <c r="L60" s="1">
         <v>3</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="4">
         <v>8028052791</v>
       </c>
       <c r="N60" s="1">
         <v>491706</v>
       </c>
-      <c r="O60" s="4">
+      <c r="O60" s="3">
         <v>44944</v>
       </c>
       <c r="P60" s="1" t="s">
@@ -2928,10 +2966,10 @@
       <c r="S60" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T60" s="5" t="s">
+      <c r="T60" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="U60" s="5">
+      <c r="U60" s="4">
         <v>17.170000000000002</v>
       </c>
     </row>
@@ -2939,25 +2977,25 @@
       <c r="A61" s="1">
         <v>4</v>
       </c>
-      <c r="B61" s="12"/>
+      <c r="B61" s="11"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="4"/>
+      <c r="D61" s="3"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
       <c r="L61" s="1">
         <v>4</v>
       </c>
-      <c r="M61" s="12">
+      <c r="M61" s="11">
         <v>8028052761</v>
       </c>
       <c r="N61" s="1">
         <v>671183</v>
       </c>
-      <c r="O61" s="4">
+      <c r="O61" s="3">
         <v>44944</v>
       </c>
       <c r="P61" s="1" t="s">
@@ -2972,10 +3010,10 @@
       <c r="S61" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T61" s="5">
+      <c r="T61" s="4">
         <v>5146.3500000000004</v>
       </c>
-      <c r="U61" s="5">
+      <c r="U61" s="4">
         <v>21.85</v>
       </c>
     </row>
@@ -2985,7 +3023,7 @@
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="4"/>
+      <c r="D62" s="3"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -2997,7 +3035,7 @@
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-      <c r="O62" s="4"/>
+      <c r="O62" s="3"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -3011,7 +3049,7 @@
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="4"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -3023,7 +3061,7 @@
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="4"/>
+      <c r="O63" s="3"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -3037,7 +3075,7 @@
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="4"/>
+      <c r="D64" s="3"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -3049,7 +3087,7 @@
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="4"/>
+      <c r="O64" s="3"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -3063,7 +3101,7 @@
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="4"/>
+      <c r="D65" s="3"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -3075,7 +3113,7 @@
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-      <c r="O65" s="4"/>
+      <c r="O65" s="3"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
@@ -3089,7 +3127,7 @@
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="4"/>
+      <c r="D66" s="3"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -3101,7 +3139,7 @@
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-      <c r="O66" s="4"/>
+      <c r="O66" s="3"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
@@ -3115,7 +3153,7 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="4"/>
+      <c r="D67" s="3"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -3127,7 +3165,7 @@
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
-      <c r="O67" s="4"/>
+      <c r="O67" s="3"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
@@ -3141,24 +3179,24 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="4"/>
+      <c r="D68" s="3"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="2"/>
+      <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="9"/>
+      <c r="I68" s="8"/>
       <c r="J68" s="1"/>
       <c r="L68" s="1">
         <v>11</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68" s="4"/>
+      <c r="O68" s="3"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
-      <c r="R68" s="2"/>
+      <c r="R68" s="1"/>
       <c r="S68" s="1"/>
-      <c r="T68" s="9"/>
+      <c r="T68" s="8"/>
       <c r="U68" s="1"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
@@ -3167,7 +3205,7 @@
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="4"/>
+      <c r="D69" s="3"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -3179,7 +3217,7 @@
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
-      <c r="O69" s="4"/>
+      <c r="O69" s="3"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
@@ -3188,70 +3226,70 @@
       <c r="U69" s="1"/>
     </row>
     <row r="75" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D75" s="3"/>
-      <c r="M75" s="11" t="s">
+      <c r="D75" s="2"/>
+      <c r="M75" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="O75" s="3"/>
+      <c r="O75" s="2"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7" t="s">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="G76" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H76" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I76" s="7" t="s">
+      <c r="I76" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J76" s="7" t="s">
+      <c r="J76" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7" t="s">
+      <c r="L76" s="6"/>
+      <c r="M76" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N76" s="7" t="s">
+      <c r="N76" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="O76" s="7" t="s">
+      <c r="O76" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P76" s="7" t="s">
+      <c r="P76" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q76" s="7" t="s">
+      <c r="Q76" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R76" s="7" t="s">
+      <c r="R76" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S76" s="7" t="s">
+      <c r="S76" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T76" s="7" t="s">
+      <c r="T76" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="U76" s="7" t="s">
+      <c r="U76" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3259,13 +3297,13 @@
       <c r="A77" s="1">
         <v>1</v>
       </c>
-      <c r="B77" s="12">
+      <c r="B77" s="11">
         <v>8028063791</v>
       </c>
       <c r="C77" s="1">
         <v>492131</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="3">
         <v>44946</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -3280,22 +3318,22 @@
       <c r="H77" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I77" s="5">
+      <c r="I77" s="4">
         <v>2604.8000000000002</v>
       </c>
-      <c r="J77" s="5">
+      <c r="J77" s="4">
         <v>14</v>
       </c>
       <c r="L77" s="1">
         <v>1</v>
       </c>
-      <c r="M77" s="12">
+      <c r="M77" s="11">
         <v>8028080926</v>
       </c>
       <c r="N77" s="1">
         <v>492864</v>
       </c>
-      <c r="O77" s="4">
+      <c r="O77" s="3">
         <v>44951</v>
       </c>
       <c r="P77" s="1" t="s">
@@ -3310,10 +3348,10 @@
       <c r="S77" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T77" s="5">
+      <c r="T77" s="4">
         <v>10630.4</v>
       </c>
-      <c r="U77" s="5">
+      <c r="U77" s="4">
         <v>19.600000000000001</v>
       </c>
     </row>
@@ -3321,13 +3359,13 @@
       <c r="A78" s="1">
         <v>2</v>
       </c>
-      <c r="B78" s="12">
+      <c r="B78" s="11">
         <v>8028063787</v>
       </c>
       <c r="C78" s="1">
         <v>492177</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="3">
         <v>44946</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -3342,22 +3380,22 @@
       <c r="H78" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I78" s="5">
+      <c r="I78" s="4">
         <v>9229.2800000000007</v>
       </c>
-      <c r="J78" s="5">
+      <c r="J78" s="4">
         <v>33.299999999999997</v>
       </c>
       <c r="L78" s="1">
         <v>2</v>
       </c>
-      <c r="M78" s="12">
+      <c r="M78" s="11">
         <v>8028080838</v>
       </c>
       <c r="N78" s="1">
         <v>492878</v>
       </c>
-      <c r="O78" s="4">
+      <c r="O78" s="3">
         <v>44951</v>
       </c>
       <c r="P78" s="1" t="s">
@@ -3372,10 +3410,10 @@
       <c r="S78" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T78" s="5">
+      <c r="T78" s="4">
         <v>9921</v>
       </c>
-      <c r="U78" s="5">
+      <c r="U78" s="4">
         <v>36.71</v>
       </c>
     </row>
@@ -3383,25 +3421,25 @@
       <c r="A79" s="1">
         <v>3</v>
       </c>
-      <c r="B79" s="12"/>
+      <c r="B79" s="11"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="4"/>
+      <c r="D79" s="3"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
       <c r="L79" s="1">
         <v>3</v>
       </c>
-      <c r="M79" s="12">
+      <c r="M79" s="11">
         <v>8028080853</v>
       </c>
       <c r="N79" s="1">
         <v>492875</v>
       </c>
-      <c r="O79" s="4">
+      <c r="O79" s="3">
         <v>44951</v>
       </c>
       <c r="P79" s="1" t="s">
@@ -3416,10 +3454,10 @@
       <c r="S79" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T79" s="5">
+      <c r="T79" s="4">
         <v>8600.9</v>
       </c>
-      <c r="U79" s="5">
+      <c r="U79" s="4">
         <v>31.48</v>
       </c>
     </row>
@@ -3427,27 +3465,27 @@
       <c r="A80" s="1">
         <v>4</v>
       </c>
-      <c r="B80" s="12"/>
+      <c r="B80" s="11"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="4"/>
+      <c r="D80" s="3"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
       <c r="L80" s="1">
         <v>4</v>
       </c>
-      <c r="M80" s="12"/>
+      <c r="M80" s="11"/>
       <c r="N80" s="1"/>
-      <c r="O80" s="4"/>
+      <c r="O80" s="3"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
@@ -3455,7 +3493,7 @@
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="4"/>
+      <c r="D81" s="3"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -3467,7 +3505,7 @@
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
-      <c r="O81" s="4"/>
+      <c r="O81" s="3"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
@@ -3481,7 +3519,7 @@
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="4"/>
+      <c r="D82" s="3"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -3493,7 +3531,7 @@
       </c>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
-      <c r="O82" s="4"/>
+      <c r="O82" s="3"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -3507,7 +3545,7 @@
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="4"/>
+      <c r="D83" s="3"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -3519,7 +3557,7 @@
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
-      <c r="O83" s="4"/>
+      <c r="O83" s="3"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
@@ -3533,7 +3571,7 @@
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="4"/>
+      <c r="D84" s="3"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -3545,7 +3583,7 @@
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
-      <c r="O84" s="4"/>
+      <c r="O84" s="3"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
@@ -3559,7 +3597,7 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="4"/>
+      <c r="D85" s="3"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -3571,7 +3609,7 @@
       </c>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
-      <c r="O85" s="4"/>
+      <c r="O85" s="3"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
@@ -3585,7 +3623,7 @@
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="4"/>
+      <c r="D86" s="3"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -3597,7 +3635,7 @@
       </c>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
-      <c r="O86" s="4"/>
+      <c r="O86" s="3"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
@@ -3611,24 +3649,24 @@
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="4"/>
+      <c r="D87" s="3"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="2"/>
+      <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="9"/>
+      <c r="I87" s="8"/>
       <c r="J87" s="1"/>
       <c r="L87" s="1">
         <v>11</v>
       </c>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
-      <c r="O87" s="4"/>
+      <c r="O87" s="3"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
-      <c r="R87" s="2"/>
+      <c r="R87" s="1"/>
       <c r="S87" s="1"/>
-      <c r="T87" s="9"/>
+      <c r="T87" s="8"/>
       <c r="U87" s="1"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
@@ -3637,7 +3675,7 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="4"/>
+      <c r="D88" s="3"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -3649,7 +3687,7 @@
       </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
-      <c r="O88" s="4"/>
+      <c r="O88" s="3"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
@@ -3658,70 +3696,70 @@
       <c r="U88" s="1"/>
     </row>
     <row r="91" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D91" s="3"/>
-      <c r="M91" s="11" t="s">
+      <c r="D91" s="2"/>
+      <c r="M91" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="O91" s="3"/>
+      <c r="O91" s="2"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7" t="s">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G92" s="7" t="s">
+      <c r="G92" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H92" s="7" t="s">
+      <c r="H92" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I92" s="7" t="s">
+      <c r="I92" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J92" s="7" t="s">
+      <c r="J92" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7" t="s">
+      <c r="L92" s="6"/>
+      <c r="M92" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N92" s="7" t="s">
+      <c r="N92" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="O92" s="7" t="s">
+      <c r="O92" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P92" s="7" t="s">
+      <c r="P92" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q92" s="7" t="s">
+      <c r="Q92" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R92" s="7" t="s">
+      <c r="R92" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S92" s="7" t="s">
+      <c r="S92" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T92" s="7" t="s">
+      <c r="T92" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="U92" s="7" t="s">
+      <c r="U92" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3729,13 +3767,13 @@
       <c r="A93" s="1">
         <v>1</v>
       </c>
-      <c r="B93" s="12">
+      <c r="B93" s="11">
         <v>8028092161</v>
       </c>
       <c r="C93" s="1">
         <v>493558</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="3">
         <v>44953</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -3750,10 +3788,10 @@
       <c r="H93" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I93" s="5">
+      <c r="I93" s="4">
         <v>11635.58</v>
       </c>
-      <c r="J93" s="5">
+      <c r="J93" s="4">
         <v>39.159999999999997</v>
       </c>
       <c r="L93" s="1">
@@ -3765,7 +3803,7 @@
       <c r="N93" s="1">
         <v>494136</v>
       </c>
-      <c r="O93" s="4">
+      <c r="O93" s="3">
         <v>44960</v>
       </c>
       <c r="P93" s="1" t="s">
@@ -3780,10 +3818,10 @@
       <c r="S93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T93" s="5">
+      <c r="T93" s="4">
         <v>4025.86</v>
       </c>
-      <c r="U93" s="5">
+      <c r="U93" s="4">
         <v>15.49</v>
       </c>
     </row>
@@ -3791,13 +3829,13 @@
       <c r="A94" s="1">
         <v>2</v>
       </c>
-      <c r="B94" s="13">
+      <c r="B94" s="11">
         <v>8028099828</v>
       </c>
       <c r="C94" s="1">
         <v>493757</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="3">
         <v>44956</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -3812,10 +3850,10 @@
       <c r="H94" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I94" s="5">
+      <c r="I94" s="4">
         <v>4653.8100000000004</v>
       </c>
-      <c r="J94" s="5">
+      <c r="J94" s="4">
         <v>13.79</v>
       </c>
       <c r="L94" s="1">
@@ -3827,7 +3865,7 @@
       <c r="N94" s="1">
         <v>494322</v>
       </c>
-      <c r="O94" s="4">
+      <c r="O94" s="3">
         <v>44963</v>
       </c>
       <c r="P94" s="1" t="s">
@@ -3842,10 +3880,10 @@
       <c r="S94" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T94" s="5">
+      <c r="T94" s="4">
         <v>7906.11</v>
       </c>
-      <c r="U94" s="5">
+      <c r="U94" s="4">
         <v>34.89</v>
       </c>
     </row>
@@ -3853,15 +3891,15 @@
       <c r="A95" s="1">
         <v>3</v>
       </c>
-      <c r="B95" s="12"/>
+      <c r="B95" s="11"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="4"/>
+      <c r="D95" s="3"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
       <c r="L95" s="1">
         <v>3</v>
       </c>
@@ -3871,7 +3909,7 @@
       <c r="N95" s="1">
         <v>494371</v>
       </c>
-      <c r="O95" s="4">
+      <c r="O95" s="3">
         <v>44963</v>
       </c>
       <c r="P95" s="1" t="s">
@@ -3886,10 +3924,10 @@
       <c r="S95" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T95" s="5">
+      <c r="T95" s="4">
         <v>4990.1400000000003</v>
       </c>
-      <c r="U95" s="5">
+      <c r="U95" s="4">
         <v>13.48</v>
       </c>
     </row>
@@ -3897,27 +3935,27 @@
       <c r="A96" s="1">
         <v>4</v>
       </c>
-      <c r="B96" s="12"/>
+      <c r="B96" s="11"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="4"/>
+      <c r="D96" s="3"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
       <c r="L96" s="1">
         <v>4</v>
       </c>
-      <c r="M96" s="12"/>
+      <c r="M96" s="11"/>
       <c r="N96" s="1"/>
-      <c r="O96" s="4"/>
+      <c r="O96" s="3"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
-      <c r="T96" s="5"/>
-      <c r="U96" s="5"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
@@ -3925,7 +3963,7 @@
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="4"/>
+      <c r="D97" s="3"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -3937,7 +3975,7 @@
       </c>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
-      <c r="O97" s="4"/>
+      <c r="O97" s="3"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
@@ -3951,7 +3989,7 @@
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="4"/>
+      <c r="D98" s="3"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -3963,7 +4001,7 @@
       </c>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
-      <c r="O98" s="4"/>
+      <c r="O98" s="3"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
@@ -3977,7 +4015,7 @@
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="4"/>
+      <c r="D99" s="3"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -3989,7 +4027,7 @@
       </c>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
-      <c r="O99" s="4"/>
+      <c r="O99" s="3"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
@@ -4003,7 +4041,7 @@
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="4"/>
+      <c r="D100" s="3"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -4015,7 +4053,7 @@
       </c>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
-      <c r="O100" s="4"/>
+      <c r="O100" s="3"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
@@ -4029,7 +4067,7 @@
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="4"/>
+      <c r="D101" s="3"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -4041,7 +4079,7 @@
       </c>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
-      <c r="O101" s="4"/>
+      <c r="O101" s="3"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
@@ -4055,7 +4093,7 @@
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="4"/>
+      <c r="D102" s="3"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -4067,7 +4105,7 @@
       </c>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
-      <c r="O102" s="4"/>
+      <c r="O102" s="3"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
@@ -4081,24 +4119,24 @@
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="4"/>
+      <c r="D103" s="3"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="2"/>
+      <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="9"/>
+      <c r="I103" s="8"/>
       <c r="J103" s="1"/>
       <c r="L103" s="1">
         <v>11</v>
       </c>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
-      <c r="O103" s="4"/>
+      <c r="O103" s="3"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
-      <c r="R103" s="2"/>
+      <c r="R103" s="1"/>
       <c r="S103" s="1"/>
-      <c r="T103" s="9"/>
+      <c r="T103" s="8"/>
       <c r="U103" s="1"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
@@ -4107,7 +4145,7 @@
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="4"/>
+      <c r="D104" s="3"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -4119,7 +4157,7 @@
       </c>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
-      <c r="O104" s="4"/>
+      <c r="O104" s="3"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
@@ -4128,70 +4166,70 @@
       <c r="U104" s="1"/>
     </row>
     <row r="108" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D108" s="3"/>
-      <c r="M108" s="11" t="s">
+      <c r="D108" s="2"/>
+      <c r="M108" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="O108" s="3"/>
+      <c r="O108" s="2"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7" t="s">
+      <c r="A109" s="6"/>
+      <c r="B109" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="E109" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="F109" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G109" s="7" t="s">
+      <c r="G109" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="H109" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I109" s="7" t="s">
+      <c r="I109" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J109" s="7" t="s">
+      <c r="J109" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L109" s="7"/>
-      <c r="M109" s="7" t="s">
+      <c r="L109" s="6"/>
+      <c r="M109" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N109" s="7" t="s">
+      <c r="N109" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="O109" s="7" t="s">
+      <c r="O109" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P109" s="7" t="s">
+      <c r="P109" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q109" s="7" t="s">
+      <c r="Q109" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R109" s="7" t="s">
+      <c r="R109" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S109" s="7" t="s">
+      <c r="S109" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T109" s="7" t="s">
+      <c r="T109" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="U109" s="7" t="s">
+      <c r="U109" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4205,7 +4243,7 @@
       <c r="C110" s="1">
         <v>496292</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="3">
         <v>44974</v>
       </c>
       <c r="E110" s="1" t="s">
@@ -4220,10 +4258,10 @@
       <c r="H110" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I110" s="5">
+      <c r="I110" s="4">
         <v>11415.88</v>
       </c>
-      <c r="J110" s="5">
+      <c r="J110" s="4">
         <v>32.81</v>
       </c>
       <c r="L110" s="1">
@@ -4235,7 +4273,7 @@
       <c r="N110" s="1">
         <v>498022</v>
       </c>
-      <c r="O110" s="4">
+      <c r="O110" s="3">
         <v>44986</v>
       </c>
       <c r="P110" s="1" t="s">
@@ -4250,10 +4288,10 @@
       <c r="S110" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T110" s="5">
+      <c r="T110" s="4">
         <v>5194.3999999999996</v>
       </c>
-      <c r="U110" s="5">
+      <c r="U110" s="4">
         <v>13.15</v>
       </c>
     </row>
@@ -4267,7 +4305,7 @@
       <c r="C111" s="1">
         <v>496284</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="3">
         <v>44974</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -4282,10 +4320,10 @@
       <c r="H111" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I111" s="5">
+      <c r="I111" s="4">
         <v>5282.37</v>
       </c>
-      <c r="J111" s="5">
+      <c r="J111" s="4">
         <v>20.76</v>
       </c>
       <c r="L111" s="1">
@@ -4293,13 +4331,13 @@
       </c>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
-      <c r="O111" s="4"/>
+      <c r="O111" s="3"/>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
-      <c r="T111" s="5"/>
-      <c r="U111" s="5"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
@@ -4311,7 +4349,7 @@
       <c r="C112" s="1">
         <v>496286</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="3">
         <v>44974</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -4326,10 +4364,10 @@
       <c r="H112" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I112" s="5">
+      <c r="I112" s="4">
         <v>3403.24</v>
       </c>
-      <c r="J112" s="5">
+      <c r="J112" s="4">
         <v>18.34</v>
       </c>
       <c r="L112" s="1">
@@ -4337,39 +4375,39 @@
       </c>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
-      <c r="O112" s="4"/>
+      <c r="O112" s="3"/>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
-      <c r="T112" s="5"/>
-      <c r="U112" s="5"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>4</v>
       </c>
-      <c r="B113" s="12"/>
+      <c r="B113" s="11"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="4"/>
+      <c r="D113" s="3"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
       <c r="L113" s="1">
         <v>4</v>
       </c>
-      <c r="M113" s="12"/>
+      <c r="M113" s="11"/>
       <c r="N113" s="1"/>
-      <c r="O113" s="4"/>
+      <c r="O113" s="3"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
-      <c r="T113" s="5"/>
-      <c r="U113" s="5"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
@@ -4377,7 +4415,7 @@
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="4"/>
+      <c r="D114" s="3"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -4389,7 +4427,7 @@
       </c>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
-      <c r="O114" s="4"/>
+      <c r="O114" s="3"/>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
@@ -4403,7 +4441,7 @@
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="4"/>
+      <c r="D115" s="3"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -4415,7 +4453,7 @@
       </c>
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
-      <c r="O115" s="4"/>
+      <c r="O115" s="3"/>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
@@ -4429,7 +4467,7 @@
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="4"/>
+      <c r="D116" s="3"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -4441,7 +4479,7 @@
       </c>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
-      <c r="O116" s="4"/>
+      <c r="O116" s="3"/>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
@@ -4455,7 +4493,7 @@
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="4"/>
+      <c r="D117" s="3"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -4467,7 +4505,7 @@
       </c>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
-      <c r="O117" s="4"/>
+      <c r="O117" s="3"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
@@ -4481,7 +4519,7 @@
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="4"/>
+      <c r="D118" s="3"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -4493,7 +4531,7 @@
       </c>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
-      <c r="O118" s="4"/>
+      <c r="O118" s="3"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
@@ -4507,7 +4545,7 @@
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="4"/>
+      <c r="D119" s="3"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -4519,7 +4557,7 @@
       </c>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
-      <c r="O119" s="4"/>
+      <c r="O119" s="3"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
@@ -4533,24 +4571,24 @@
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="4"/>
+      <c r="D120" s="3"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-      <c r="G120" s="2"/>
+      <c r="G120" s="1"/>
       <c r="H120" s="1"/>
-      <c r="I120" s="9"/>
+      <c r="I120" s="8"/>
       <c r="J120" s="1"/>
       <c r="L120" s="1">
         <v>11</v>
       </c>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
-      <c r="O120" s="4"/>
+      <c r="O120" s="3"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
-      <c r="R120" s="2"/>
+      <c r="R120" s="1"/>
       <c r="S120" s="1"/>
-      <c r="T120" s="9"/>
+      <c r="T120" s="8"/>
       <c r="U120" s="1"/>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
@@ -4559,7 +4597,7 @@
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="4"/>
+      <c r="D121" s="3"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -4571,7 +4609,7 @@
       </c>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
-      <c r="O121" s="4"/>
+      <c r="O121" s="3"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
@@ -4580,70 +4618,70 @@
       <c r="U121" s="1"/>
     </row>
     <row r="125" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D125" s="3"/>
-      <c r="M125" s="14">
+      <c r="D125" s="2"/>
+      <c r="M125" s="12">
         <v>45002</v>
       </c>
-      <c r="O125" s="3"/>
+      <c r="O125" s="2"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7" t="s">
+      <c r="A126" s="6"/>
+      <c r="B126" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E126" s="7" t="s">
+      <c r="E126" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="F126" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G126" s="7" t="s">
+      <c r="G126" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H126" s="7" t="s">
+      <c r="H126" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I126" s="7" t="s">
+      <c r="I126" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J126" s="7" t="s">
+      <c r="J126" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L126" s="7"/>
-      <c r="M126" s="7" t="s">
+      <c r="L126" s="6"/>
+      <c r="M126" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N126" s="7" t="s">
+      <c r="N126" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="O126" s="7" t="s">
+      <c r="O126" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P126" s="7" t="s">
+      <c r="P126" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q126" s="7" t="s">
+      <c r="Q126" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R126" s="7" t="s">
+      <c r="R126" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S126" s="7" t="s">
+      <c r="S126" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T126" s="7" t="s">
+      <c r="T126" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="U126" s="7" t="s">
+      <c r="U126" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4657,7 +4695,7 @@
       <c r="C127" s="1">
         <v>498541</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D127" s="3">
         <v>44991</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -4672,10 +4710,10 @@
       <c r="H127" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I127" s="5">
+      <c r="I127" s="4">
         <v>2886.97</v>
       </c>
-      <c r="J127" s="5">
+      <c r="J127" s="4">
         <v>12.41</v>
       </c>
       <c r="L127" s="1">
@@ -4687,7 +4725,7 @@
       <c r="N127" s="1">
         <v>499103</v>
       </c>
-      <c r="O127" s="4">
+      <c r="O127" s="3">
         <v>44992</v>
       </c>
       <c r="P127" s="1" t="s">
@@ -4702,10 +4740,10 @@
       <c r="S127" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T127" s="5">
+      <c r="T127" s="4">
         <v>4546.79</v>
       </c>
-      <c r="U127" s="5">
+      <c r="U127" s="4">
         <v>11.69</v>
       </c>
     </row>
@@ -4719,7 +4757,7 @@
       <c r="C128" s="1">
         <v>498662</v>
       </c>
-      <c r="D128" s="4">
+      <c r="D128" s="3">
         <v>44992</v>
       </c>
       <c r="E128" s="1" t="s">
@@ -4734,10 +4772,10 @@
       <c r="H128" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I128" s="5">
+      <c r="I128" s="4">
         <v>4575.6000000000004</v>
       </c>
-      <c r="J128" s="5">
+      <c r="J128" s="4">
         <v>15.88</v>
       </c>
       <c r="L128" s="1">
@@ -4749,7 +4787,7 @@
       <c r="N128" s="1">
         <v>499721</v>
       </c>
-      <c r="O128" s="4">
+      <c r="O128" s="3">
         <v>44998</v>
       </c>
       <c r="P128" s="1" t="s">
@@ -4764,10 +4802,10 @@
       <c r="S128" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T128" s="5">
+      <c r="T128" s="4">
         <v>6662.03</v>
       </c>
-      <c r="U128" s="5">
+      <c r="U128" s="4">
         <v>14.66</v>
       </c>
     </row>
@@ -4781,7 +4819,7 @@
       <c r="C129" s="1">
         <v>498663</v>
       </c>
-      <c r="D129" s="4">
+      <c r="D129" s="3">
         <v>44992</v>
       </c>
       <c r="E129" s="1" t="s">
@@ -4796,10 +4834,10 @@
       <c r="H129" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I129" s="5">
+      <c r="I129" s="4">
         <v>5267.2</v>
       </c>
-      <c r="J129" s="5">
+      <c r="J129" s="4">
         <v>17.559999999999999</v>
       </c>
       <c r="L129" s="1">
@@ -4811,7 +4849,7 @@
       <c r="N129" s="1">
         <v>499658</v>
       </c>
-      <c r="O129" s="4">
+      <c r="O129" s="3">
         <v>44998</v>
       </c>
       <c r="P129" s="1" t="s">
@@ -4826,10 +4864,10 @@
       <c r="S129" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T129" s="5">
+      <c r="T129" s="4">
         <v>4544.29</v>
       </c>
-      <c r="U129" s="5">
+      <c r="U129" s="4">
         <v>11.69</v>
       </c>
     </row>
@@ -4837,13 +4875,13 @@
       <c r="A130" s="1">
         <v>4</v>
       </c>
-      <c r="B130" s="12">
+      <c r="B130" s="11">
         <v>8028258351</v>
       </c>
       <c r="C130" s="1">
         <v>499105</v>
       </c>
-      <c r="D130" s="4">
+      <c r="D130" s="3">
         <v>44993</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -4858,24 +4896,24 @@
       <c r="H130" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I130" s="5">
+      <c r="I130" s="4">
         <v>3554.98</v>
       </c>
-      <c r="J130" s="5">
+      <c r="J130" s="4">
         <v>13.03</v>
       </c>
       <c r="L130" s="1">
         <v>4</v>
       </c>
-      <c r="M130" s="12"/>
+      <c r="M130" s="11"/>
       <c r="N130" s="1"/>
-      <c r="O130" s="4"/>
+      <c r="O130" s="3"/>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
-      <c r="T130" s="5"/>
-      <c r="U130" s="5"/>
+      <c r="T130" s="4"/>
+      <c r="U130" s="4"/>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
@@ -4887,7 +4925,7 @@
       <c r="C131" s="1">
         <v>499104</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D131" s="3">
         <v>44993</v>
       </c>
       <c r="E131" s="1" t="s">
@@ -4913,7 +4951,7 @@
       </c>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
-      <c r="O131" s="4"/>
+      <c r="O131" s="3"/>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
@@ -4927,7 +4965,7 @@
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="4">
+      <c r="D132" s="3">
         <v>44993</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -4949,7 +4987,7 @@
       </c>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
-      <c r="O132" s="4"/>
+      <c r="O132" s="3"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
@@ -4967,7 +5005,7 @@
       <c r="C133" s="1">
         <v>499515</v>
       </c>
-      <c r="D133" s="4">
+      <c r="D133" s="3">
         <v>44995</v>
       </c>
       <c r="E133" s="1" t="s">
@@ -4993,7 +5031,7 @@
       </c>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
-      <c r="O133" s="4"/>
+      <c r="O133" s="3"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
@@ -5007,7 +5045,7 @@
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="4"/>
+      <c r="D134" s="3"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -5019,7 +5057,7 @@
       </c>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
-      <c r="O134" s="4"/>
+      <c r="O134" s="3"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
@@ -5033,7 +5071,7 @@
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="4"/>
+      <c r="D135" s="3"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -5045,7 +5083,7 @@
       </c>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
-      <c r="O135" s="4"/>
+      <c r="O135" s="3"/>
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
@@ -5059,7 +5097,7 @@
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="4"/>
+      <c r="D136" s="3"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -5071,7 +5109,7 @@
       </c>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
-      <c r="O136" s="4"/>
+      <c r="O136" s="3"/>
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
@@ -5085,24 +5123,24 @@
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="4"/>
+      <c r="D137" s="3"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
-      <c r="G137" s="2"/>
+      <c r="G137" s="1"/>
       <c r="H137" s="1"/>
-      <c r="I137" s="9"/>
+      <c r="I137" s="8"/>
       <c r="J137" s="1"/>
       <c r="L137" s="1">
         <v>11</v>
       </c>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
-      <c r="O137" s="4"/>
+      <c r="O137" s="3"/>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
-      <c r="R137" s="2"/>
+      <c r="R137" s="1"/>
       <c r="S137" s="1"/>
-      <c r="T137" s="9"/>
+      <c r="T137" s="8"/>
       <c r="U137" s="1"/>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
@@ -5111,7 +5149,7 @@
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="4"/>
+      <c r="D138" s="3"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -5123,7 +5161,7 @@
       </c>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
-      <c r="O138" s="4"/>
+      <c r="O138" s="3"/>
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
@@ -5132,70 +5170,70 @@
       <c r="U138" s="1"/>
     </row>
     <row r="143" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B143" s="14">
+      <c r="B143" s="12">
         <v>45005</v>
       </c>
-      <c r="D143" s="3"/>
-      <c r="M143" s="14">
+      <c r="D143" s="2"/>
+      <c r="M143" s="12">
         <v>45009</v>
       </c>
-      <c r="O143" s="3"/>
+      <c r="O143" s="2"/>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A144" s="7"/>
-      <c r="B144" s="7" t="s">
+      <c r="A144" s="6"/>
+      <c r="B144" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C144" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D144" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E144" s="7" t="s">
+      <c r="E144" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F144" s="7" t="s">
+      <c r="F144" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G144" s="7" t="s">
+      <c r="G144" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H144" s="7" t="s">
+      <c r="H144" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I144" s="7" t="s">
+      <c r="I144" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J144" s="7" t="s">
+      <c r="J144" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L144" s="7"/>
-      <c r="M144" s="7" t="s">
+      <c r="L144" s="6"/>
+      <c r="M144" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N144" s="7" t="s">
+      <c r="N144" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="O144" s="7" t="s">
+      <c r="O144" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P144" s="7" t="s">
+      <c r="P144" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q144" s="7" t="s">
+      <c r="Q144" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R144" s="7" t="s">
+      <c r="R144" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S144" s="7" t="s">
+      <c r="S144" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T144" s="7" t="s">
+      <c r="T144" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="U144" s="7" t="s">
+      <c r="U144" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5209,7 +5247,7 @@
       <c r="C145" s="1">
         <v>501052</v>
       </c>
-      <c r="D145" s="4">
+      <c r="D145" s="3">
         <v>45005</v>
       </c>
       <c r="E145" s="1" t="s">
@@ -5224,10 +5262,10 @@
       <c r="H145" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I145" s="5">
+      <c r="I145" s="4">
         <v>4749.6400000000003</v>
       </c>
-      <c r="J145" s="5">
+      <c r="J145" s="4">
         <v>12.82</v>
       </c>
       <c r="L145" s="1">
@@ -5239,7 +5277,7 @@
       <c r="N145" s="1">
         <v>501052</v>
       </c>
-      <c r="O145" s="4">
+      <c r="O145" s="3">
         <v>45005</v>
       </c>
       <c r="P145" s="1" t="s">
@@ -5254,10 +5292,10 @@
       <c r="S145" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T145" s="5">
+      <c r="T145" s="4">
         <v>4749.6400000000003</v>
       </c>
-      <c r="U145" s="5">
+      <c r="U145" s="4">
         <v>12.82</v>
       </c>
     </row>
@@ -5271,7 +5309,7 @@
       <c r="C146" s="1">
         <v>500809</v>
       </c>
-      <c r="D146" s="4">
+      <c r="D146" s="3">
         <v>45002</v>
       </c>
       <c r="E146" s="1" t="s">
@@ -5286,10 +5324,10 @@
       <c r="H146" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I146" s="5">
+      <c r="I146" s="4">
         <v>3440.9</v>
       </c>
-      <c r="J146" s="5">
+      <c r="J146" s="4">
         <v>18.739999999999998</v>
       </c>
       <c r="L146" s="1">
@@ -5301,7 +5339,7 @@
       <c r="N146" s="1">
         <v>501178</v>
       </c>
-      <c r="O146" s="4">
+      <c r="O146" s="3">
         <v>45006</v>
       </c>
       <c r="P146" s="1" t="s">
@@ -5316,10 +5354,10 @@
       <c r="S146" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T146" s="5">
+      <c r="T146" s="4">
         <v>6271.4</v>
       </c>
-      <c r="U146" s="5">
+      <c r="U146" s="4">
         <v>21.59</v>
       </c>
     </row>
@@ -5333,7 +5371,7 @@
       <c r="C147" s="1">
         <v>501038</v>
       </c>
-      <c r="D147" s="4">
+      <c r="D147" s="3">
         <v>45005</v>
       </c>
       <c r="E147" s="1" t="s">
@@ -5348,10 +5386,10 @@
       <c r="H147" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I147" s="5">
+      <c r="I147" s="4">
         <v>6521.92</v>
       </c>
-      <c r="J147" s="5">
+      <c r="J147" s="4">
         <v>31.31</v>
       </c>
       <c r="L147" s="1">
@@ -5363,7 +5401,7 @@
       <c r="N147" s="1">
         <v>501218</v>
       </c>
-      <c r="O147" s="4">
+      <c r="O147" s="3">
         <v>45006</v>
       </c>
       <c r="P147" s="1" t="s">
@@ -5378,10 +5416,10 @@
       <c r="S147" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T147" s="5">
+      <c r="T147" s="4">
         <v>6141.8</v>
       </c>
-      <c r="U147" s="5">
+      <c r="U147" s="4">
         <v>21.3</v>
       </c>
     </row>
@@ -5389,27 +5427,27 @@
       <c r="A148" s="1">
         <v>4</v>
       </c>
-      <c r="B148" s="12"/>
+      <c r="B148" s="11"/>
       <c r="C148" s="1"/>
-      <c r="D148" s="4"/>
+      <c r="D148" s="3"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
-      <c r="I148" s="5"/>
-      <c r="J148" s="5"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
       <c r="L148" s="1">
         <v>4</v>
       </c>
-      <c r="M148" s="12"/>
+      <c r="M148" s="11"/>
       <c r="N148" s="1"/>
-      <c r="O148" s="4"/>
+      <c r="O148" s="3"/>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
-      <c r="T148" s="5"/>
-      <c r="U148" s="5"/>
+      <c r="T148" s="4"/>
+      <c r="U148" s="4"/>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
@@ -5417,7 +5455,7 @@
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
-      <c r="D149" s="4"/>
+      <c r="D149" s="3"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -5429,7 +5467,7 @@
       </c>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
-      <c r="O149" s="4"/>
+      <c r="O149" s="3"/>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
@@ -5443,7 +5481,7 @@
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="4"/>
+      <c r="D150" s="3"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -5455,7 +5493,7 @@
       </c>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
-      <c r="O150" s="4"/>
+      <c r="O150" s="3"/>
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
@@ -5469,7 +5507,7 @@
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
-      <c r="D151" s="4"/>
+      <c r="D151" s="3"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -5481,7 +5519,7 @@
       </c>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
-      <c r="O151" s="4"/>
+      <c r="O151" s="3"/>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
@@ -5495,7 +5533,7 @@
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
-      <c r="D152" s="4"/>
+      <c r="D152" s="3"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -5507,7 +5545,7 @@
       </c>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
-      <c r="O152" s="4"/>
+      <c r="O152" s="3"/>
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
@@ -5521,7 +5559,7 @@
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="4"/>
+      <c r="D153" s="3"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -5533,7 +5571,7 @@
       </c>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
-      <c r="O153" s="4"/>
+      <c r="O153" s="3"/>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
@@ -5547,7 +5585,7 @@
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="4"/>
+      <c r="D154" s="3"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -5559,7 +5597,7 @@
       </c>
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
-      <c r="O154" s="4"/>
+      <c r="O154" s="3"/>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
@@ -5573,24 +5611,24 @@
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="4"/>
+      <c r="D155" s="3"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
-      <c r="G155" s="2"/>
+      <c r="G155" s="1"/>
       <c r="H155" s="1"/>
-      <c r="I155" s="9"/>
+      <c r="I155" s="8"/>
       <c r="J155" s="1"/>
       <c r="L155" s="1">
         <v>11</v>
       </c>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
-      <c r="O155" s="4"/>
+      <c r="O155" s="3"/>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
-      <c r="R155" s="2"/>
+      <c r="R155" s="1"/>
       <c r="S155" s="1"/>
-      <c r="T155" s="9"/>
+      <c r="T155" s="8"/>
       <c r="U155" s="1"/>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.25">
@@ -5599,7 +5637,7 @@
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="4"/>
+      <c r="D156" s="3"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -5611,7 +5649,7 @@
       </c>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
-      <c r="O156" s="4"/>
+      <c r="O156" s="3"/>
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
@@ -5620,70 +5658,70 @@
       <c r="U156" s="1"/>
     </row>
     <row r="159" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B159" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D159" s="3"/>
-      <c r="M159" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="O159" s="3"/>
+      <c r="B159" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D159" s="2"/>
+      <c r="M159" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O159" s="2"/>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A160" s="7"/>
-      <c r="B160" s="7" t="s">
+      <c r="A160" s="6"/>
+      <c r="B160" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C160" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D160" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E160" s="7" t="s">
+      <c r="E160" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F160" s="7" t="s">
+      <c r="F160" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G160" s="7" t="s">
+      <c r="G160" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H160" s="7" t="s">
+      <c r="H160" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I160" s="7" t="s">
+      <c r="I160" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J160" s="7" t="s">
+      <c r="J160" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L160" s="7"/>
-      <c r="M160" s="7" t="s">
+      <c r="L160" s="6"/>
+      <c r="M160" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N160" s="7" t="s">
+      <c r="N160" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="O160" s="7" t="s">
+      <c r="O160" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P160" s="7" t="s">
+      <c r="P160" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q160" s="7" t="s">
+      <c r="Q160" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R160" s="7" t="s">
+      <c r="R160" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S160" s="7" t="s">
+      <c r="S160" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T160" s="7" t="s">
+      <c r="T160" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="U160" s="7" t="s">
+      <c r="U160" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5697,7 +5735,7 @@
       <c r="C161" s="1">
         <v>501052</v>
       </c>
-      <c r="D161" s="4">
+      <c r="D161" s="3">
         <v>45005</v>
       </c>
       <c r="E161" s="1" t="s">
@@ -5712,10 +5750,10 @@
       <c r="H161" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I161" s="5">
+      <c r="I161" s="4">
         <v>4749.6400000000003</v>
       </c>
-      <c r="J161" s="5">
+      <c r="J161" s="4">
         <v>12.82</v>
       </c>
       <c r="L161" s="1">
@@ -5727,7 +5765,7 @@
       <c r="N161" s="1">
         <v>502481</v>
       </c>
-      <c r="O161" s="4">
+      <c r="O161" s="3">
         <v>45012</v>
       </c>
       <c r="P161" s="1" t="s">
@@ -5742,10 +5780,10 @@
       <c r="S161" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T161" s="5">
+      <c r="T161" s="4">
         <v>4862.32</v>
       </c>
-      <c r="U161" s="5">
+      <c r="U161" s="4">
         <v>20.190000000000001</v>
       </c>
     </row>
@@ -5759,7 +5797,7 @@
       <c r="C162" s="1">
         <v>502216</v>
       </c>
-      <c r="D162" s="4">
+      <c r="D162" s="3">
         <v>45009</v>
       </c>
       <c r="E162" s="1" t="s">
@@ -5774,10 +5812,10 @@
       <c r="H162" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I162" s="5">
+      <c r="I162" s="4">
         <v>4060.9</v>
       </c>
-      <c r="J162" s="5">
+      <c r="J162" s="4">
         <v>19.96</v>
       </c>
       <c r="L162" s="1">
@@ -5789,7 +5827,7 @@
       <c r="N162" s="1">
         <v>502482</v>
       </c>
-      <c r="O162" s="4">
+      <c r="O162" s="3">
         <v>45012</v>
       </c>
       <c r="P162" s="1" t="s">
@@ -5804,10 +5842,10 @@
       <c r="S162" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T162" s="5">
+      <c r="T162" s="4">
         <v>11396.2</v>
       </c>
-      <c r="U162" s="5">
+      <c r="U162" s="4">
         <v>35.880000000000003</v>
       </c>
     </row>
@@ -5821,7 +5859,7 @@
       <c r="C163" s="1">
         <v>502222</v>
       </c>
-      <c r="D163" s="4">
+      <c r="D163" s="3">
         <v>45009</v>
       </c>
       <c r="E163" s="1" t="s">
@@ -5836,10 +5874,10 @@
       <c r="H163" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I163" s="5">
+      <c r="I163" s="4">
         <v>4011.32</v>
       </c>
-      <c r="J163" s="5">
+      <c r="J163" s="4">
         <v>22.57</v>
       </c>
       <c r="L163" s="1">
@@ -5847,39 +5885,39 @@
       </c>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
-      <c r="O163" s="4"/>
+      <c r="O163" s="3"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
-      <c r="T163" s="5"/>
-      <c r="U163" s="5"/>
+      <c r="T163" s="4"/>
+      <c r="U163" s="4"/>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>4</v>
       </c>
-      <c r="B164" s="12"/>
+      <c r="B164" s="11"/>
       <c r="C164" s="1"/>
-      <c r="D164" s="4"/>
+      <c r="D164" s="3"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
-      <c r="I164" s="5"/>
-      <c r="J164" s="5"/>
+      <c r="I164" s="4"/>
+      <c r="J164" s="4"/>
       <c r="L164" s="1">
         <v>4</v>
       </c>
-      <c r="M164" s="12"/>
+      <c r="M164" s="11"/>
       <c r="N164" s="1"/>
-      <c r="O164" s="4"/>
+      <c r="O164" s="3"/>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
-      <c r="T164" s="5"/>
-      <c r="U164" s="5"/>
+      <c r="T164" s="4"/>
+      <c r="U164" s="4"/>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
@@ -5887,7 +5925,7 @@
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
-      <c r="D165" s="4"/>
+      <c r="D165" s="3"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
@@ -5899,7 +5937,7 @@
       </c>
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
-      <c r="O165" s="4"/>
+      <c r="O165" s="3"/>
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
@@ -5913,7 +5951,7 @@
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
-      <c r="D166" s="4"/>
+      <c r="D166" s="3"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -5925,7 +5963,7 @@
       </c>
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
-      <c r="O166" s="4"/>
+      <c r="O166" s="3"/>
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
@@ -5939,7 +5977,7 @@
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
-      <c r="D167" s="4"/>
+      <c r="D167" s="3"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
@@ -5951,7 +5989,7 @@
       </c>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
-      <c r="O167" s="4"/>
+      <c r="O167" s="3"/>
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
@@ -5965,7 +6003,7 @@
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
-      <c r="D168" s="4"/>
+      <c r="D168" s="3"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -5977,7 +6015,7 @@
       </c>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
-      <c r="O168" s="4"/>
+      <c r="O168" s="3"/>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
@@ -5991,7 +6029,7 @@
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
-      <c r="D169" s="4"/>
+      <c r="D169" s="3"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -6003,7 +6041,7 @@
       </c>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
-      <c r="O169" s="4"/>
+      <c r="O169" s="3"/>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
@@ -6017,7 +6055,7 @@
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
-      <c r="D170" s="4"/>
+      <c r="D170" s="3"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -6029,7 +6067,7 @@
       </c>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
-      <c r="O170" s="4"/>
+      <c r="O170" s="3"/>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
@@ -6043,24 +6081,24 @@
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
-      <c r="D171" s="4"/>
+      <c r="D171" s="3"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
-      <c r="G171" s="2"/>
+      <c r="G171" s="1"/>
       <c r="H171" s="1"/>
-      <c r="I171" s="9"/>
+      <c r="I171" s="8"/>
       <c r="J171" s="1"/>
       <c r="L171" s="1">
         <v>11</v>
       </c>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
-      <c r="O171" s="4"/>
+      <c r="O171" s="3"/>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
-      <c r="R171" s="2"/>
+      <c r="R171" s="1"/>
       <c r="S171" s="1"/>
-      <c r="T171" s="9"/>
+      <c r="T171" s="8"/>
       <c r="U171" s="1"/>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.25">
@@ -6069,7 +6107,7 @@
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
-      <c r="D172" s="4"/>
+      <c r="D172" s="3"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
@@ -6081,7 +6119,7 @@
       </c>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
-      <c r="O172" s="4"/>
+      <c r="O172" s="3"/>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
@@ -6090,75 +6128,75 @@
       <c r="U172" s="1"/>
     </row>
     <row r="175" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B175" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D175" s="3"/>
-      <c r="M175" s="14">
+      <c r="B175" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D175" s="2"/>
+      <c r="M175" s="12">
         <v>45020</v>
       </c>
-      <c r="O175" s="3"/>
+      <c r="O175" s="2"/>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A176" s="7"/>
-      <c r="B176" s="7" t="s">
+      <c r="A176" s="6"/>
+      <c r="B176" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C176" s="7" t="s">
+      <c r="C176" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D176" s="7" t="s">
+      <c r="D176" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E176" s="7" t="s">
+      <c r="E176" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F176" s="7" t="s">
+      <c r="F176" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G176" s="7" t="s">
+      <c r="G176" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H176" s="7" t="s">
+      <c r="H176" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I176" s="7" t="s">
+      <c r="I176" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J176" s="7" t="s">
+      <c r="J176" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L176" s="7"/>
-      <c r="M176" s="7" t="s">
+      <c r="L176" s="6"/>
+      <c r="M176" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N176" s="7" t="s">
+      <c r="N176" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="O176" s="7" t="s">
+      <c r="O176" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P176" s="7" t="s">
+      <c r="P176" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q176" s="7" t="s">
+      <c r="Q176" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R176" s="7" t="s">
+      <c r="R176" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S176" s="7" t="s">
+      <c r="S176" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T176" s="7" t="s">
+      <c r="T176" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="U176" s="7" t="s">
+      <c r="U176" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="15">
+    <row r="177" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="13">
         <v>1</v>
       </c>
       <c r="B177" s="1">
@@ -6167,7 +6205,7 @@
       <c r="C177" s="1">
         <v>502481</v>
       </c>
-      <c r="D177" s="4">
+      <c r="D177" s="3">
         <v>45012</v>
       </c>
       <c r="E177" s="1" t="s">
@@ -6182,13 +6220,13 @@
       <c r="H177" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I177" s="5">
+      <c r="I177" s="4">
         <v>4862.32</v>
       </c>
-      <c r="J177" s="5">
+      <c r="J177" s="4">
         <v>20.190000000000001</v>
       </c>
-      <c r="L177" s="15">
+      <c r="L177" s="13">
         <v>1</v>
       </c>
       <c r="M177" s="1">
@@ -6197,7 +6235,7 @@
       <c r="N177" s="1">
         <v>503507</v>
       </c>
-      <c r="O177" s="4">
+      <c r="O177" s="3">
         <v>45019</v>
       </c>
       <c r="P177" s="1" t="s">
@@ -6207,20 +6245,20 @@
         <v>77</v>
       </c>
       <c r="R177" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S177" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T177" s="5">
+      <c r="T177" s="4">
         <v>7282.2</v>
       </c>
-      <c r="U177" s="5">
+      <c r="U177" s="4">
         <v>24.6</v>
       </c>
     </row>
-    <row r="178" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="15">
+    <row r="178" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="13">
         <v>2</v>
       </c>
       <c r="B178" s="1">
@@ -6229,7 +6267,7 @@
       <c r="C178" s="1">
         <v>502482</v>
       </c>
-      <c r="D178" s="4">
+      <c r="D178" s="3">
         <v>45012</v>
       </c>
       <c r="E178" s="1" t="s">
@@ -6244,13 +6282,13 @@
       <c r="H178" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I178" s="5">
+      <c r="I178" s="4">
         <v>11396.2</v>
       </c>
-      <c r="J178" s="5">
+      <c r="J178" s="4">
         <v>35.880000000000003</v>
       </c>
-      <c r="L178" s="15">
+      <c r="L178" s="13">
         <v>2</v>
       </c>
       <c r="M178" s="1">
@@ -6259,7 +6297,7 @@
       <c r="N178" s="1">
         <v>503454</v>
       </c>
-      <c r="O178" s="4">
+      <c r="O178" s="3">
         <v>45019</v>
       </c>
       <c r="P178" s="1" t="s">
@@ -6274,15 +6312,15 @@
       <c r="S178" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T178" s="5">
+      <c r="T178" s="4">
         <v>9046.26</v>
       </c>
-      <c r="U178" s="5">
+      <c r="U178" s="4">
         <v>29.94</v>
       </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A179" s="15">
+      <c r="A179" s="13">
         <v>3</v>
       </c>
       <c r="B179" s="1">
@@ -6291,7 +6329,7 @@
       <c r="C179" s="1">
         <v>502704</v>
       </c>
-      <c r="D179" s="4">
+      <c r="D179" s="3">
         <v>45012</v>
       </c>
       <c r="E179" s="1" t="s">
@@ -6306,27 +6344,27 @@
       <c r="H179" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I179" s="5">
+      <c r="I179" s="4">
         <v>5814.6</v>
       </c>
-      <c r="J179" s="5">
+      <c r="J179" s="4">
         <v>19.89</v>
       </c>
-      <c r="L179" s="15">
+      <c r="L179" s="13">
         <v>3</v>
       </c>
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
-      <c r="O179" s="4"/>
+      <c r="O179" s="3"/>
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
-      <c r="T179" s="5"/>
-      <c r="U179" s="5"/>
+      <c r="T179" s="4"/>
+      <c r="U179" s="4"/>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A180" s="15">
+      <c r="A180" s="13">
         <v>4</v>
       </c>
       <c r="B180" s="1">
@@ -6335,7 +6373,7 @@
       <c r="C180" s="1">
         <v>503156</v>
       </c>
-      <c r="D180" s="4">
+      <c r="D180" s="3">
         <v>45014</v>
       </c>
       <c r="E180" s="1" t="s">
@@ -6350,27 +6388,27 @@
       <c r="H180" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I180" s="5">
+      <c r="I180" s="4">
         <v>9847.34</v>
       </c>
-      <c r="J180" s="5">
+      <c r="J180" s="4">
         <v>22.49</v>
       </c>
-      <c r="L180" s="15">
+      <c r="L180" s="13">
         <v>4</v>
       </c>
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
-      <c r="O180" s="4"/>
+      <c r="O180" s="3"/>
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
-      <c r="T180" s="5"/>
-      <c r="U180" s="5"/>
+      <c r="T180" s="4"/>
+      <c r="U180" s="4"/>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A181" s="15">
+      <c r="A181" s="13">
         <v>5</v>
       </c>
       <c r="B181" s="1">
@@ -6379,7 +6417,7 @@
       <c r="C181" s="1">
         <v>503096</v>
       </c>
-      <c r="D181" s="4">
+      <c r="D181" s="3">
         <v>45014</v>
       </c>
       <c r="E181" s="1" t="s">
@@ -6389,41 +6427,41 @@
         <v>78</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I181" s="5">
+      <c r="I181" s="4">
         <v>4799.76</v>
       </c>
-      <c r="J181" s="5">
+      <c r="J181" s="4">
         <v>18.739999999999998</v>
       </c>
-      <c r="L181" s="15">
+      <c r="L181" s="13">
         <v>5</v>
       </c>
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
-      <c r="O181" s="4"/>
+      <c r="O181" s="3"/>
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
-      <c r="T181" s="5"/>
-      <c r="U181" s="5"/>
+      <c r="T181" s="4"/>
+      <c r="U181" s="4"/>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A182" s="15">
+      <c r="A182" s="13">
         <v>6</v>
       </c>
-      <c r="B182" s="12">
+      <c r="B182" s="11">
         <v>8028333043</v>
       </c>
       <c r="C182" s="1">
         <v>503132</v>
       </c>
-      <c r="D182" s="4">
+      <c r="D182" s="3">
         <v>45014</v>
       </c>
       <c r="E182" s="1" t="s">
@@ -6438,27 +6476,27 @@
       <c r="H182" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I182" s="5">
+      <c r="I182" s="4">
         <v>4947</v>
       </c>
-      <c r="J182" s="5">
+      <c r="J182" s="4">
         <v>23</v>
       </c>
-      <c r="L182" s="15">
+      <c r="L182" s="13">
         <v>6</v>
       </c>
-      <c r="M182" s="12"/>
+      <c r="M182" s="11"/>
       <c r="N182" s="1"/>
-      <c r="O182" s="4"/>
+      <c r="O182" s="3"/>
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
-      <c r="T182" s="5"/>
-      <c r="U182" s="5"/>
+      <c r="T182" s="4"/>
+      <c r="U182" s="4"/>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A183" s="15">
+      <c r="A183" s="13">
         <v>7</v>
       </c>
       <c r="B183" s="1">
@@ -6467,7 +6505,7 @@
       <c r="C183" s="1">
         <v>503091</v>
       </c>
-      <c r="D183" s="4">
+      <c r="D183" s="3">
         <v>45014</v>
       </c>
       <c r="E183" s="1" t="s">
@@ -6488,12 +6526,12 @@
       <c r="J183" s="1">
         <v>18.7</v>
       </c>
-      <c r="L183" s="15">
+      <c r="L183" s="13">
         <v>7</v>
       </c>
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
-      <c r="O183" s="4"/>
+      <c r="O183" s="3"/>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
@@ -6502,24 +6540,24 @@
       <c r="U183" s="1"/>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A184" s="15">
+      <c r="A184" s="13">
         <v>8</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
-      <c r="D184" s="4"/>
+      <c r="D184" s="3"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
-      <c r="L184" s="15">
+      <c r="L184" s="13">
         <v>8</v>
       </c>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
-      <c r="O184" s="4"/>
+      <c r="O184" s="3"/>
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
@@ -6528,24 +6566,24 @@
       <c r="U184" s="1"/>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A185" s="15">
+      <c r="A185" s="13">
         <v>9</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
-      <c r="D185" s="4"/>
+      <c r="D185" s="3"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
-      <c r="L185" s="15">
+      <c r="L185" s="13">
         <v>9</v>
       </c>
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
-      <c r="O185" s="4"/>
+      <c r="O185" s="3"/>
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
@@ -6554,24 +6592,24 @@
       <c r="U185" s="1"/>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A186" s="15">
+      <c r="A186" s="13">
         <v>10</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
-      <c r="D186" s="4"/>
+      <c r="D186" s="3"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
-      <c r="L186" s="15">
+      <c r="L186" s="13">
         <v>10</v>
       </c>
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
-      <c r="O186" s="4"/>
+      <c r="O186" s="3"/>
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
@@ -6580,24 +6618,24 @@
       <c r="U186" s="1"/>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A187" s="15">
+      <c r="A187" s="13">
         <v>11</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
-      <c r="D187" s="4"/>
+      <c r="D187" s="3"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
-      <c r="L187" s="15">
+      <c r="L187" s="13">
         <v>11</v>
       </c>
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
-      <c r="O187" s="4"/>
+      <c r="O187" s="3"/>
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
@@ -6606,24 +6644,24 @@
       <c r="U187" s="1"/>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A188" s="15">
+      <c r="A188" s="13">
         <v>12</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
-      <c r="D188" s="4"/>
+      <c r="D188" s="3"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
-      <c r="L188" s="15">
+      <c r="L188" s="13">
         <v>12</v>
       </c>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
-      <c r="O188" s="4"/>
+      <c r="O188" s="3"/>
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
@@ -6632,75 +6670,75 @@
       <c r="U188" s="1"/>
     </row>
     <row r="191" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B191" s="14">
+      <c r="B191" s="12">
         <v>45026</v>
       </c>
-      <c r="D191" s="3"/>
-      <c r="M191" s="14">
+      <c r="D191" s="2"/>
+      <c r="M191" s="12">
         <v>45030</v>
       </c>
-      <c r="O191" s="3"/>
+      <c r="O191" s="2"/>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A192" s="7"/>
-      <c r="B192" s="7" t="s">
+      <c r="A192" s="6"/>
+      <c r="B192" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="7" t="s">
+      <c r="C192" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D192" s="7" t="s">
+      <c r="D192" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E192" s="7" t="s">
+      <c r="E192" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F192" s="7" t="s">
+      <c r="F192" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G192" s="7" t="s">
+      <c r="G192" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H192" s="7" t="s">
+      <c r="H192" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I192" s="7" t="s">
+      <c r="I192" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J192" s="7" t="s">
+      <c r="J192" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L192" s="7"/>
-      <c r="M192" s="7" t="s">
+      <c r="L192" s="6"/>
+      <c r="M192" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N192" s="7" t="s">
+      <c r="N192" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="O192" s="7" t="s">
+      <c r="O192" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P192" s="7" t="s">
+      <c r="P192" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q192" s="7" t="s">
+      <c r="Q192" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R192" s="7" t="s">
+      <c r="R192" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S192" s="7" t="s">
+      <c r="S192" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T192" s="7" t="s">
+      <c r="T192" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="U192" s="7" t="s">
+      <c r="U192" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A193" s="15">
+      <c r="A193" s="13">
         <v>1</v>
       </c>
       <c r="B193" s="1">
@@ -6709,7 +6747,7 @@
       <c r="C193" s="1">
         <v>503971</v>
       </c>
-      <c r="D193" s="4">
+      <c r="D193" s="3">
         <v>45021</v>
       </c>
       <c r="E193" s="1" t="s">
@@ -6724,22 +6762,22 @@
       <c r="H193" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I193" s="5">
+      <c r="I193" s="4">
         <v>10180.459999999999</v>
       </c>
-      <c r="J193" s="5">
+      <c r="J193" s="4">
         <v>36.909999999999997</v>
       </c>
-      <c r="L193" s="15">
+      <c r="L193" s="13">
         <v>1</v>
       </c>
-      <c r="M193" s="12">
+      <c r="M193" s="11">
         <v>8028370862</v>
       </c>
       <c r="N193" s="1">
         <v>504355</v>
       </c>
-      <c r="O193" s="4">
+      <c r="O193" s="3">
         <v>45026</v>
       </c>
       <c r="P193" s="1" t="s">
@@ -6754,15 +6792,15 @@
       <c r="S193" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T193" s="5">
+      <c r="T193" s="4">
         <v>9801.51</v>
       </c>
-      <c r="U193" s="5">
+      <c r="U193" s="4">
         <v>33.39</v>
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A194" s="15">
+      <c r="A194" s="13">
         <v>2</v>
       </c>
       <c r="B194" s="1">
@@ -6771,7 +6809,7 @@
       <c r="C194" s="1">
         <v>504222</v>
       </c>
-      <c r="D194" s="4">
+      <c r="D194" s="3">
         <v>45023</v>
       </c>
       <c r="E194" s="1" t="s">
@@ -6786,22 +6824,22 @@
       <c r="H194" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I194" s="5">
+      <c r="I194" s="4">
         <v>9777</v>
       </c>
-      <c r="J194" s="5">
+      <c r="J194" s="4">
         <v>36.6</v>
       </c>
-      <c r="L194" s="15">
+      <c r="L194" s="13">
         <v>2</v>
       </c>
-      <c r="M194" s="12">
+      <c r="M194" s="11">
         <v>8028370886</v>
       </c>
       <c r="N194" s="1">
         <v>504382</v>
       </c>
-      <c r="O194" s="4">
+      <c r="O194" s="3">
         <v>45026</v>
       </c>
       <c r="P194" s="1" t="s">
@@ -6811,41 +6849,41 @@
         <v>58</v>
       </c>
       <c r="R194" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S194" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="S194" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="T194" s="5">
+      <c r="T194" s="4">
         <v>7618.05</v>
       </c>
-      <c r="U194" s="5">
+      <c r="U194" s="4">
         <v>18.12</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A195" s="15">
+      <c r="A195" s="13">
         <v>3</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
-      <c r="D195" s="4"/>
+      <c r="D195" s="3"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
-      <c r="I195" s="5"/>
-      <c r="J195" s="5"/>
-      <c r="L195" s="15">
+      <c r="I195" s="4"/>
+      <c r="J195" s="4"/>
+      <c r="L195" s="13">
         <v>3</v>
       </c>
-      <c r="M195" s="12">
+      <c r="M195" s="11">
         <v>8028372893</v>
       </c>
       <c r="N195" s="1">
         <v>504644</v>
       </c>
-      <c r="O195" s="4">
+      <c r="O195" s="3">
         <v>45027</v>
       </c>
       <c r="P195" s="1" t="s">
@@ -6860,36 +6898,36 @@
       <c r="S195" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T195" s="5">
+      <c r="T195" s="4">
         <v>7457.4</v>
       </c>
-      <c r="U195" s="5">
+      <c r="U195" s="4">
         <v>26.14</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A196" s="15">
+      <c r="A196" s="13">
         <v>4</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
-      <c r="D196" s="4"/>
+      <c r="D196" s="3"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
-      <c r="I196" s="5"/>
-      <c r="J196" s="5"/>
-      <c r="L196" s="15">
+      <c r="I196" s="4"/>
+      <c r="J196" s="4"/>
+      <c r="L196" s="13">
         <v>4</v>
       </c>
-      <c r="M196" s="12">
+      <c r="M196" s="11">
         <v>8028372895</v>
       </c>
       <c r="N196" s="1">
         <v>504643</v>
       </c>
-      <c r="O196" s="4">
+      <c r="O196" s="3">
         <v>45027</v>
       </c>
       <c r="P196" s="1" t="s">
@@ -6899,41 +6937,41 @@
         <v>77</v>
       </c>
       <c r="R196" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S196" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="S196" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="T196" s="5">
+      <c r="T196" s="4">
         <v>7018.2</v>
       </c>
-      <c r="U196" s="5">
+      <c r="U196" s="4">
         <v>24.65</v>
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A197" s="15">
+      <c r="A197" s="13">
         <v>5</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
-      <c r="D197" s="4"/>
+      <c r="D197" s="3"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
-      <c r="I197" s="5"/>
-      <c r="J197" s="5"/>
-      <c r="L197" s="15">
+      <c r="I197" s="4"/>
+      <c r="J197" s="4"/>
+      <c r="L197" s="13">
         <v>5</v>
       </c>
-      <c r="M197" s="12">
+      <c r="M197" s="11">
         <v>8028380508</v>
       </c>
       <c r="N197" s="1">
         <v>504942</v>
       </c>
-      <c r="O197" s="4">
+      <c r="O197" s="3">
         <v>45028</v>
       </c>
       <c r="P197" s="1" t="s">
@@ -6943,41 +6981,41 @@
         <v>58</v>
       </c>
       <c r="R197" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S197" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="S197" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="T197" s="5">
+      <c r="T197" s="4">
         <v>7814</v>
       </c>
-      <c r="U197" s="5">
+      <c r="U197" s="4">
         <v>40.79</v>
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A198" s="15">
+      <c r="A198" s="13">
         <v>6</v>
       </c>
-      <c r="B198" s="12"/>
+      <c r="B198" s="11"/>
       <c r="C198" s="1"/>
-      <c r="D198" s="4"/>
+      <c r="D198" s="3"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
-      <c r="I198" s="5"/>
-      <c r="J198" s="5"/>
-      <c r="L198" s="15">
+      <c r="I198" s="4"/>
+      <c r="J198" s="4"/>
+      <c r="L198" s="13">
         <v>6</v>
       </c>
-      <c r="M198" s="12">
+      <c r="M198" s="11">
         <v>8028380496</v>
       </c>
       <c r="N198" s="1">
         <v>504951</v>
       </c>
-      <c r="O198" s="4">
+      <c r="O198" s="3">
         <v>45028</v>
       </c>
       <c r="P198" s="1" t="s">
@@ -6992,36 +7030,36 @@
       <c r="S198" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T198" s="5">
+      <c r="T198" s="4">
         <v>6801.41</v>
       </c>
-      <c r="U198" s="5">
+      <c r="U198" s="4">
         <v>38.58</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A199" s="15">
+      <c r="A199" s="13">
         <v>7</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
-      <c r="D199" s="4"/>
+      <c r="D199" s="3"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
-      <c r="L199" s="15">
+      <c r="L199" s="13">
         <v>7</v>
       </c>
-      <c r="M199" s="12">
+      <c r="M199" s="11">
         <v>8028380599</v>
       </c>
       <c r="N199" s="1">
         <v>504950</v>
       </c>
-      <c r="O199" s="4">
+      <c r="O199" s="3">
         <v>45028</v>
       </c>
       <c r="P199" s="1" t="s">
@@ -7044,28 +7082,28 @@
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A200" s="15">
+      <c r="A200" s="13">
         <v>8</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
-      <c r="D200" s="4"/>
+      <c r="D200" s="3"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
-      <c r="L200" s="15">
-        <v>8</v>
-      </c>
-      <c r="M200" s="12">
+      <c r="L200" s="13">
+        <v>8</v>
+      </c>
+      <c r="M200" s="11">
         <v>8028380546</v>
       </c>
       <c r="N200" s="1">
         <v>504941</v>
       </c>
-      <c r="O200" s="4">
+      <c r="O200" s="3">
         <v>45028</v>
       </c>
       <c r="P200" s="1" t="s">
@@ -7088,24 +7126,24 @@
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A201" s="15">
+      <c r="A201" s="13">
         <v>9</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
-      <c r="D201" s="4"/>
+      <c r="D201" s="3"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
-      <c r="L201" s="15">
+      <c r="L201" s="13">
         <v>9</v>
       </c>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
-      <c r="O201" s="4"/>
+      <c r="O201" s="3"/>
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
@@ -7114,24 +7152,24 @@
       <c r="U201" s="1"/>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A202" s="15">
+      <c r="A202" s="13">
         <v>10</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
-      <c r="D202" s="4"/>
+      <c r="D202" s="3"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
-      <c r="L202" s="15">
+      <c r="L202" s="13">
         <v>10</v>
       </c>
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
-      <c r="O202" s="4"/>
+      <c r="O202" s="3"/>
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
@@ -7140,24 +7178,24 @@
       <c r="U202" s="1"/>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A203" s="15">
+      <c r="A203" s="13">
         <v>11</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
-      <c r="D203" s="4"/>
+      <c r="D203" s="3"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
-      <c r="L203" s="15">
+      <c r="L203" s="13">
         <v>11</v>
       </c>
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
-      <c r="O203" s="4"/>
+      <c r="O203" s="3"/>
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
@@ -7166,24 +7204,24 @@
       <c r="U203" s="1"/>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A204" s="15">
+      <c r="A204" s="13">
         <v>12</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
-      <c r="D204" s="4"/>
+      <c r="D204" s="3"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
-      <c r="L204" s="15">
+      <c r="L204" s="13">
         <v>12</v>
       </c>
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
-      <c r="O204" s="4"/>
+      <c r="O204" s="3"/>
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
       <c r="R204" s="1"/>
@@ -7198,7 +7236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
@@ -7213,10 +7251,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>44918</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>44925</v>
       </c>
     </row>
@@ -7224,42 +7262,42 @@
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>44910</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7277,7 +7315,7 @@
       <c r="F3" s="1">
         <v>19288</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>44921</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -7297,7 +7335,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>44910</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -7315,7 +7353,7 @@
       <c r="F4" s="1">
         <v>19290</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>44923</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -7335,7 +7373,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>44911</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -7353,7 +7391,7 @@
       <c r="F5" s="1">
         <v>19289</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>44924</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -7373,7 +7411,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>44914</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -7391,7 +7429,7 @@
       <c r="F6" s="1">
         <v>19346</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>44924</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -7409,7 +7447,7 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>44915</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -7424,10 +7462,10 @@
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>44863</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -7445,13 +7483,13 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>44924</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -7471,13 +7509,13 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -7485,13 +7523,13 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -7499,13 +7537,13 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -7513,13 +7551,13 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="H12" s="4"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -7527,27 +7565,27 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="H14" s="4"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -7555,57 +7593,57 @@
       <c r="M14" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="17">
+      <c r="B16" s="15">
         <v>44939</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="I16" s="17">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="I16" s="15">
         <v>44949</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>44931</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -7617,13 +7655,13 @@
       <c r="D18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>3367</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>44942</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -7635,15 +7673,15 @@
       <c r="K18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="1">
         <v>3450</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>44932</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -7655,13 +7693,13 @@
       <c r="D19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>3365</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>44943</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -7673,15 +7711,15 @@
       <c r="K19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="1">
         <v>3458</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>44936</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -7693,13 +7731,13 @@
       <c r="D20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>3397</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>44945</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -7711,15 +7749,15 @@
       <c r="K20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="1">
         <v>3466</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>44938</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -7731,13 +7769,13 @@
       <c r="D21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>6094</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>44945</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -7749,13 +7787,13 @@
       <c r="K21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M21" s="2"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>44938</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -7767,13 +7805,13 @@
       <c r="D22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>6095</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>44945</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -7785,13 +7823,13 @@
       <c r="K22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M22" s="2"/>
+      <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>44938</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -7803,13 +7841,13 @@
       <c r="D23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>6096</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>44945</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -7821,58 +7859,58 @@
       <c r="K23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="1">
         <v>3478</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="17">
+      <c r="B29" s="15">
         <v>44978</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="H29" s="8" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="H29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="L29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="8" t="s">
+      <c r="M29" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <v>44979</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -7884,15 +7922,15 @@
       <c r="K30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="1">
         <v>3689</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>44966</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -7904,13 +7942,13 @@
       <c r="D31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>3621</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <v>44980</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -7922,15 +7960,15 @@
       <c r="K31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="1">
         <v>6536</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>44967</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -7942,13 +7980,13 @@
       <c r="D32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>6389</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <v>44980</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -7960,15 +7998,15 @@
       <c r="K32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="1">
         <v>3697</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>44973</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -7980,13 +8018,13 @@
       <c r="D33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>6474</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <v>44980</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -7998,15 +8036,15 @@
       <c r="K33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="1">
         <v>6537</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>44973</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -8018,13 +8056,13 @@
       <c r="D34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>3666</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="5">
         <v>44980</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -8036,15 +8074,15 @@
       <c r="K34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>44973</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -8056,13 +8094,13 @@
       <c r="D35" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>3668</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="5">
         <v>44980</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -8074,15 +8112,15 @@
       <c r="K35" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="1">
         <v>3698</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>44973</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -8094,13 +8132,13 @@
       <c r="D36" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>3669</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <v>44980</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -8112,15 +8150,15 @@
       <c r="K36" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="1">
         <v>6533</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>44973</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -8132,13 +8170,13 @@
       <c r="D37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>3665</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <v>44982</v>
       </c>
       <c r="I37" s="1" t="s">
@@ -8150,15 +8188,15 @@
       <c r="K37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="1">
         <v>3706</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H38" s="6">
+      <c r="H38" s="5">
         <v>44984</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -8170,10 +8208,10 @@
       <c r="K38" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="1">
         <v>6569</v>
       </c>
     </row>
@@ -8189,11 +8227,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A9:T32"/>
   <sheetViews>
-    <sheetView topLeftCell="G14" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="G14" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23:T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8207,128 +8245,128 @@
   </cols>
   <sheetData>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="J11" s="10" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="J11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="J12" s="10" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="J12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="J13" s="10" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="J13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="N15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="P15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="8" t="s">
+      <c r="Q15" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8336,7 +8374,7 @@
       <c r="A16" s="1">
         <v>45637</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>44915</v>
       </c>
       <c r="C16" s="1">
@@ -8358,7 +8396,7 @@
       <c r="J16" s="1">
         <v>45737</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>44918</v>
       </c>
       <c r="L16" s="1">
@@ -8382,7 +8420,7 @@
       <c r="A17" s="1">
         <v>45574</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>44911</v>
       </c>
       <c r="C17" s="1">
@@ -8402,7 +8440,7 @@
       </c>
       <c r="H17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="4"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -8429,128 +8467,128 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D23" s="10"/>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="M25" s="10" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="M25" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="M26" s="10" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="M26" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="M27" s="10" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="M27" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M29" s="8" t="s">
+      <c r="M29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N29" s="8" t="s">
+      <c r="N29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O29" s="8" t="s">
+      <c r="O29" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P29" s="8" t="s">
+      <c r="P29" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Q29" s="8" t="s">
+      <c r="Q29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R29" s="8" t="s">
+      <c r="R29" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="S29" s="8" t="s">
+      <c r="S29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="8" t="s">
+      <c r="T29" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8558,7 +8596,7 @@
       <c r="D30" s="1">
         <v>92797616</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>44946</v>
       </c>
       <c r="F30" s="1">
@@ -8578,25 +8616,25 @@
       </c>
       <c r="K30" s="1"/>
       <c r="M30" s="1">
-        <v>92802457</v>
-      </c>
-      <c r="N30" s="4">
-        <v>44999</v>
+        <v>92809482</v>
+      </c>
+      <c r="N30" s="3">
+        <v>45072</v>
       </c>
       <c r="O30" s="1">
-        <v>30324402</v>
+        <v>30328920</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Q30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R30" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="R30" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="S30" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="T30" s="1"/>
     </row>
@@ -8604,7 +8642,7 @@
       <c r="D31" s="1">
         <v>92797578</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>44955</v>
       </c>
       <c r="F31" s="1">
@@ -8624,7 +8662,7 @@
       </c>
       <c r="K31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="4"/>
+      <c r="N31" s="3"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -8657,7 +8695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8667,34 +8705,34 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="17">
+      <c r="B2" s="15">
         <v>44978</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>44966</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -8706,15 +8744,15 @@
       <c r="D4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>3621</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>44967</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -8726,15 +8764,15 @@
       <c r="D5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>6389</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>44973</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -8746,15 +8784,15 @@
       <c r="D6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>6474</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>44973</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -8766,15 +8804,15 @@
       <c r="D7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>3666</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>44973</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -8786,15 +8824,15 @@
       <c r="D8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>3668</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>44973</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -8806,15 +8844,15 @@
       <c r="D9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>3669</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>44973</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -8826,10 +8864,10 @@
       <c r="D10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>3665</v>
       </c>
     </row>
